--- a/src/main/resources/static/export/Excel.xlsx
+++ b/src/main/resources/static/export/Excel.xlsx
@@ -12,15 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Father's initial</t>
-  </si>
-  <si>
-    <t>First Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+  <si>
+    <t>Student ID</t>
   </si>
   <si>
     <t>Group</t>
@@ -41,6 +35,9 @@
     <t>Laboratory 1 bonus</t>
   </si>
   <si>
+    <t>Laboratory 1 grade</t>
+  </si>
+  <si>
     <t>Seminar 2 at.</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Laboratory 2 bonus</t>
   </si>
   <si>
-    <t>Laboratory 2 grade</t>
-  </si>
-  <si>
     <t>Seminar 3 at.</t>
   </si>
   <si>
@@ -227,6 +221,9 @@
     <t>Partial Exam Sem 2</t>
   </si>
   <si>
+    <t>Partial Exam Sem 3</t>
+  </si>
+  <si>
     <t>Bonus</t>
   </si>
   <si>
@@ -239,229 +236,10 @@
     <t>Final Grade</t>
   </si>
   <si>
-    <t>Abrudan</t>
-  </si>
-  <si>
-    <t>I.</t>
-  </si>
-  <si>
-    <t>Ioana-Madalina</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
     <t>MLR5023</t>
-  </si>
-  <si>
-    <t>Ailenei</t>
-  </si>
-  <si>
-    <t>N.</t>
-  </si>
-  <si>
-    <t>Dan Gabriel</t>
-  </si>
-  <si>
-    <t>Alba</t>
-  </si>
-  <si>
-    <t>G.I.</t>
-  </si>
-  <si>
-    <t>Grigore Catalin</t>
-  </si>
-  <si>
-    <t>Albu</t>
-  </si>
-  <si>
-    <t>A.</t>
-  </si>
-  <si>
-    <t>Oana</t>
-  </si>
-  <si>
-    <t>Andras</t>
-  </si>
-  <si>
-    <t>D.S.</t>
-  </si>
-  <si>
-    <t>Stefan Daniel</t>
-  </si>
-  <si>
-    <t>Antal</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Ardelean</t>
-  </si>
-  <si>
-    <t>D.H.</t>
-  </si>
-  <si>
-    <t>Alexandru Andrei</t>
-  </si>
-  <si>
-    <t>Baies</t>
-  </si>
-  <si>
-    <t>T.M.</t>
-  </si>
-  <si>
-    <t>Alex Laurentiu</t>
-  </si>
-  <si>
-    <t>Balan</t>
-  </si>
-  <si>
-    <t>Paul Catalin</t>
-  </si>
-  <si>
-    <t>Baraian</t>
-  </si>
-  <si>
-    <t>Iulia Maria</t>
-  </si>
-  <si>
-    <t>Barnutiu</t>
-  </si>
-  <si>
-    <t>M.R.</t>
-  </si>
-  <si>
-    <t>Denis Vasile</t>
-  </si>
-  <si>
-    <t>Berlea</t>
-  </si>
-  <si>
-    <t>Dragos Teodor</t>
-  </si>
-  <si>
-    <t>Birsan</t>
-  </si>
-  <si>
-    <t>Vlad Ioan</t>
-  </si>
-  <si>
-    <t>Bocsa</t>
-  </si>
-  <si>
-    <t>G.</t>
-  </si>
-  <si>
-    <t>Mirela Alexandra</t>
-  </si>
-  <si>
-    <t>Bodiu</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Catalin</t>
-  </si>
-  <si>
-    <t>Boicu</t>
-  </si>
-  <si>
-    <t>M.</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Borsan</t>
-  </si>
-  <si>
-    <t>I.L.</t>
-  </si>
-  <si>
-    <t>Ioan Gabriel</t>
-  </si>
-  <si>
-    <t>Bosinta</t>
-  </si>
-  <si>
-    <t>V.V.</t>
-  </si>
-  <si>
-    <t>Bogdan Viorel</t>
-  </si>
-  <si>
-    <t>Bosutar</t>
-  </si>
-  <si>
-    <t>T.N.</t>
-  </si>
-  <si>
-    <t>Ana Maria</t>
-  </si>
-  <si>
-    <t>Brasovean</t>
-  </si>
-  <si>
-    <t>V.</t>
-  </si>
-  <si>
-    <t>Carmen Delia</t>
-  </si>
-  <si>
-    <t>Condrovici</t>
-  </si>
-  <si>
-    <t>V.D.</t>
-  </si>
-  <si>
-    <t>Teodor Florin</t>
-  </si>
-  <si>
-    <t>Csorba</t>
-  </si>
-  <si>
-    <t>S.</t>
-  </si>
-  <si>
-    <t>Norberth</t>
-  </si>
-  <si>
-    <t>Cus</t>
-  </si>
-  <si>
-    <t>P.</t>
-  </si>
-  <si>
-    <t>Paul Gabriel</t>
-  </si>
-  <si>
-    <t>Czeli</t>
-  </si>
-  <si>
-    <t>I.A.</t>
-  </si>
-  <si>
-    <t>Mark Dominik</t>
-  </si>
-  <si>
-    <t>Galanton</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>Darius</t>
-  </si>
-  <si>
-    <t>Runcan</t>
-  </si>
-  <si>
-    <t>M.M.</t>
-  </si>
-  <si>
-    <t>Andra</t>
   </si>
 </sst>
 </file>
@@ -718,10 +496,10 @@
         <v>67</v>
       </c>
       <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
         <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
       </c>
       <c r="BS1" t="s">
         <v>69</v>
@@ -733,494 +511,485 @@
         <v>71</v>
       </c>
       <c r="BV1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BW1" t="s">
         <v>72</v>
       </c>
       <c r="BX1" t="s">
         <v>73</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="n">
+        <v>22030.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="BV3" t="n">
         <v>1.0</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BW3" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="BX3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>80</v>
+      <c r="A4" t="n">
+        <v>12033.0</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
       </c>
       <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BV4" t="n">
         <v>1.0</v>
       </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AR4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BW4" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>83</v>
+      <c r="A5" t="n">
+        <v>12034.0</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1228,23 +997,23 @@
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -1267,11 +1036,11 @@
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.0</v>
@@ -1294,11 +1063,11 @@
       <c r="AC5" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.0</v>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0</v>
@@ -1309,11 +1078,11 @@
       <c r="AH5" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.0</v>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0.0</v>
@@ -1336,11 +1105,11 @@
       <c r="AQ5" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0.0</v>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0.0</v>
@@ -1351,11 +1120,11 @@
       <c r="AV5" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0.0</v>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX5" t="b">
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
         <v>0.0</v>
@@ -1366,11 +1135,11 @@
       <c r="BA5" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0.0</v>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="b">
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
         <v>0.0</v>
@@ -1393,11 +1162,11 @@
       <c r="BJ5" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0.0</v>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL5" t="b">
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
         <v>0.0</v>
@@ -1408,8 +1177,8 @@
       <c r="BO5" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP5" t="b">
-        <v>0</v>
+      <c r="BP5" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ5" t="n">
         <v>0.0</v>
@@ -1430,27 +1199,24 @@
         <v>0.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>86</v>
+      <c r="A6" t="n">
+        <v>22035.0</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1458,23 +1224,23 @@
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
+      <c r="H6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -1497,11 +1263,11 @@
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
+      <c r="U6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0.0</v>
@@ -1524,11 +1290,11 @@
       <c r="AC6" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.0</v>
+      <c r="AD6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0.0</v>
@@ -1539,11 +1305,11 @@
       <c r="AH6" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.0</v>
+      <c r="AI6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0.0</v>
@@ -1566,11 +1332,11 @@
       <c r="AQ6" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.0</v>
+      <c r="AR6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AS6" t="b">
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0.0</v>
@@ -1581,11 +1347,11 @@
       <c r="AV6" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.0</v>
+      <c r="AW6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX6" t="b">
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.0</v>
@@ -1596,11 +1362,11 @@
       <c r="BA6" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0.0</v>
+      <c r="BB6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
         <v>0.0</v>
@@ -1623,11 +1389,11 @@
       <c r="BJ6" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0.0</v>
+      <c r="BK6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL6" t="b">
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
@@ -1638,8 +1404,8 @@
       <c r="BO6" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP6" t="b">
-        <v>0</v>
+      <c r="BP6" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ6" t="n">
         <v>0.0</v>
@@ -1660,27 +1426,24 @@
         <v>0.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>89</v>
+      <c r="A7" t="n">
+        <v>12036.0</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1688,23 +1451,23 @@
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0</v>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -1727,11 +1490,11 @@
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
@@ -1754,11 +1517,11 @@
       <c r="AC7" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.0</v>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.0</v>
@@ -1769,11 +1532,11 @@
       <c r="AH7" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.0</v>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0.0</v>
@@ -1796,11 +1559,11 @@
       <c r="AQ7" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0.0</v>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="b">
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
         <v>0.0</v>
@@ -1811,11 +1574,11 @@
       <c r="AV7" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.0</v>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="b">
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
         <v>0.0</v>
@@ -1826,11 +1589,11 @@
       <c r="BA7" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0.0</v>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="b">
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
         <v>0.0</v>
@@ -1853,11 +1616,11 @@
       <c r="BJ7" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0.0</v>
+      <c r="BK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL7" t="b">
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
         <v>0.0</v>
@@ -1868,8 +1631,8 @@
       <c r="BO7" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP7" t="b">
-        <v>0</v>
+      <c r="BP7" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ7" t="n">
         <v>0.0</v>
@@ -1890,27 +1653,24 @@
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>92</v>
+      <c r="A8" t="n">
+        <v>12038.0</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1918,23 +1678,23 @@
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0</v>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -1957,11 +1717,11 @@
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.0</v>
@@ -1984,11 +1744,11 @@
       <c r="AC8" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.0</v>
+      <c r="AD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0.0</v>
@@ -1999,11 +1759,11 @@
       <c r="AH8" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.0</v>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0.0</v>
@@ -2026,11 +1786,11 @@
       <c r="AQ8" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.0</v>
+      <c r="AR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS8" t="b">
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0.0</v>
@@ -2041,11 +1801,11 @@
       <c r="AV8" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0.0</v>
+      <c r="AW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX8" t="b">
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
         <v>0.0</v>
@@ -2056,11 +1816,11 @@
       <c r="BA8" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0.0</v>
+      <c r="BB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC8" t="b">
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
         <v>0.0</v>
@@ -2083,11 +1843,11 @@
       <c r="BJ8" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0.0</v>
+      <c r="BK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL8" t="b">
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0.0</v>
@@ -2098,8 +1858,8 @@
       <c r="BO8" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP8" t="b">
-        <v>0</v>
+      <c r="BP8" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>0.0</v>
@@ -2120,27 +1880,24 @@
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>94</v>
+      <c r="A9" t="n">
+        <v>12039.0</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2148,23 +1905,23 @@
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -2187,11 +1944,11 @@
       <c r="T9" t="n">
         <v>0.0</v>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0.0</v>
@@ -2214,11 +1971,11 @@
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.0</v>
+      <c r="AD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0.0</v>
@@ -2229,11 +1986,11 @@
       <c r="AH9" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.0</v>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>0.0</v>
@@ -2256,11 +2013,11 @@
       <c r="AQ9" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.0</v>
+      <c r="AR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS9" t="b">
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0.0</v>
@@ -2271,11 +2028,11 @@
       <c r="AV9" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0.0</v>
+      <c r="AW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX9" t="b">
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
         <v>0.0</v>
@@ -2286,11 +2043,11 @@
       <c r="BA9" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0.0</v>
+      <c r="BB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC9" t="b">
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
         <v>0.0</v>
@@ -2313,11 +2070,11 @@
       <c r="BJ9" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0.0</v>
+      <c r="BK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL9" t="b">
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
         <v>0.0</v>
@@ -2328,8 +2085,8 @@
       <c r="BO9" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP9" t="b">
-        <v>0</v>
+      <c r="BP9" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ9" t="n">
         <v>0.0</v>
@@ -2350,27 +2107,24 @@
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>97</v>
+      <c r="A10" t="n">
+        <v>12040.0</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2378,23 +2132,23 @@
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -2417,11 +2171,11 @@
       <c r="T10" t="n">
         <v>0.0</v>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0.0</v>
@@ -2444,11 +2198,11 @@
       <c r="AC10" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.0</v>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>0.0</v>
@@ -2459,11 +2213,11 @@
       <c r="AH10" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.0</v>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0.0</v>
@@ -2486,11 +2240,11 @@
       <c r="AQ10" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0.0</v>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>0.0</v>
@@ -2501,11 +2255,11 @@
       <c r="AV10" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0.0</v>
+      <c r="AW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX10" t="b">
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
         <v>0.0</v>
@@ -2516,11 +2270,11 @@
       <c r="BA10" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0.0</v>
+      <c r="BB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC10" t="b">
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
         <v>0.0</v>
@@ -2543,11 +2297,11 @@
       <c r="BJ10" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0.0</v>
+      <c r="BK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL10" t="b">
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
         <v>0.0</v>
@@ -2558,8 +2312,8 @@
       <c r="BO10" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP10" t="b">
-        <v>0</v>
+      <c r="BP10" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ10" t="n">
         <v>0.0</v>
@@ -2580,27 +2334,24 @@
         <v>0.0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX10" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>100</v>
+      <c r="A11" t="n">
+        <v>12041.0</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2608,23 +2359,23 @@
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0</v>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -2647,11 +2398,11 @@
       <c r="T11" t="n">
         <v>0.0</v>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.0</v>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0.0</v>
@@ -2674,11 +2425,11 @@
       <c r="AC11" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.0</v>
+      <c r="AD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
         <v>0.0</v>
@@ -2689,11 +2440,11 @@
       <c r="AH11" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.0</v>
+      <c r="AI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0.0</v>
@@ -2716,11 +2467,11 @@
       <c r="AQ11" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0.0</v>
+      <c r="AR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0.0</v>
@@ -2731,11 +2482,11 @@
       <c r="AV11" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0.0</v>
+      <c r="AW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX11" t="b">
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
         <v>0.0</v>
@@ -2746,11 +2497,11 @@
       <c r="BA11" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0.0</v>
+      <c r="BB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC11" t="b">
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0.0</v>
@@ -2773,11 +2524,11 @@
       <c r="BJ11" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0.0</v>
+      <c r="BK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL11" t="b">
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
         <v>0.0</v>
@@ -2788,8 +2539,8 @@
       <c r="BO11" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP11" t="b">
-        <v>0</v>
+      <c r="BP11" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ11" t="n">
         <v>0.0</v>
@@ -2810,27 +2561,24 @@
         <v>0.0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX11" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>102</v>
+      <c r="A12" t="n">
+        <v>12042.0</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2838,23 +2586,23 @@
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0</v>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -2877,11 +2625,11 @@
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0</v>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0.0</v>
@@ -2904,11 +2652,11 @@
       <c r="AC12" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.0</v>
+      <c r="AD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0.0</v>
@@ -2919,11 +2667,11 @@
       <c r="AH12" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.0</v>
+      <c r="AI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0.0</v>
@@ -2946,11 +2694,11 @@
       <c r="AQ12" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0.0</v>
+      <c r="AR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>0.0</v>
@@ -2961,11 +2709,11 @@
       <c r="AV12" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0.0</v>
+      <c r="AW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX12" t="b">
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
         <v>0.0</v>
@@ -2976,11 +2724,11 @@
       <c r="BA12" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0.0</v>
+      <c r="BB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC12" t="b">
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
         <v>0.0</v>
@@ -3003,11 +2751,11 @@
       <c r="BJ12" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK12" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0.0</v>
+      <c r="BK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL12" t="b">
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
         <v>0.0</v>
@@ -3018,8 +2766,8 @@
       <c r="BO12" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP12" t="b">
-        <v>0</v>
+      <c r="BP12" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ12" t="n">
         <v>0.0</v>
@@ -3040,27 +2788,24 @@
         <v>0.0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX12" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>104</v>
+      <c r="A13" t="n">
+        <v>12043.0</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -3068,23 +2813,23 @@
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0</v>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -3107,11 +2852,11 @@
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.0</v>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0.0</v>
@@ -3134,11 +2879,11 @@
       <c r="AC13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.0</v>
+      <c r="AD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>0.0</v>
@@ -3149,11 +2894,11 @@
       <c r="AH13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.0</v>
+      <c r="AI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0.0</v>
@@ -3176,11 +2921,11 @@
       <c r="AQ13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0.0</v>
+      <c r="AR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
         <v>0.0</v>
@@ -3191,11 +2936,11 @@
       <c r="AV13" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0.0</v>
+      <c r="AW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX13" t="b">
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
         <v>0.0</v>
@@ -3206,11 +2951,11 @@
       <c r="BA13" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0.0</v>
+      <c r="BB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC13" t="b">
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
         <v>0.0</v>
@@ -3233,11 +2978,11 @@
       <c r="BJ13" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK13" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0.0</v>
+      <c r="BK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL13" t="b">
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
         <v>0.0</v>
@@ -3248,8 +2993,8 @@
       <c r="BO13" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP13" t="b">
-        <v>0</v>
+      <c r="BP13" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
         <v>0.0</v>
@@ -3270,27 +3015,24 @@
         <v>0.0</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>107</v>
+      <c r="A14" t="n">
+        <v>12045.0</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3298,23 +3040,23 @@
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.0</v>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3337,11 +3079,11 @@
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.0</v>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
@@ -3364,11 +3106,11 @@
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.0</v>
+      <c r="AD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0.0</v>
@@ -3379,11 +3121,11 @@
       <c r="AH14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.0</v>
+      <c r="AI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
         <v>0.0</v>
@@ -3406,11 +3148,11 @@
       <c r="AQ14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0.0</v>
+      <c r="AR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS14" t="b">
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>0.0</v>
@@ -3421,11 +3163,11 @@
       <c r="AV14" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0.0</v>
+      <c r="AW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX14" t="b">
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
         <v>0.0</v>
@@ -3436,11 +3178,11 @@
       <c r="BA14" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0.0</v>
+      <c r="BB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC14" t="b">
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
         <v>0.0</v>
@@ -3463,11 +3205,11 @@
       <c r="BJ14" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0.0</v>
+      <c r="BK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL14" t="b">
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
         <v>0.0</v>
@@ -3478,8 +3220,8 @@
       <c r="BO14" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP14" t="b">
-        <v>0</v>
+      <c r="BP14" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ14" t="n">
         <v>0.0</v>
@@ -3500,27 +3242,24 @@
         <v>0.0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX14" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>109</v>
+      <c r="A15" t="n">
+        <v>12046.0</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3528,23 +3267,23 @@
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.0</v>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -3567,11 +3306,11 @@
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.0</v>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0.0</v>
@@ -3594,11 +3333,11 @@
       <c r="AC15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.0</v>
+      <c r="AD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
         <v>0.0</v>
@@ -3609,11 +3348,11 @@
       <c r="AH15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.0</v>
+      <c r="AI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0.0</v>
@@ -3636,11 +3375,11 @@
       <c r="AQ15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0.0</v>
+      <c r="AR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>0.0</v>
@@ -3651,11 +3390,11 @@
       <c r="AV15" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0.0</v>
+      <c r="AW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX15" t="b">
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
         <v>0.0</v>
@@ -3666,11 +3405,11 @@
       <c r="BA15" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0.0</v>
+      <c r="BB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC15" t="b">
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
         <v>0.0</v>
@@ -3693,11 +3432,11 @@
       <c r="BJ15" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0.0</v>
+      <c r="BK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL15" t="b">
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
         <v>0.0</v>
@@ -3708,8 +3447,8 @@
       <c r="BO15" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP15" t="b">
-        <v>0</v>
+      <c r="BP15" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0.0</v>
@@ -3730,27 +3469,24 @@
         <v>0.0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>111</v>
+      <c r="A16" t="n">
+        <v>22047.0</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3758,23 +3494,23 @@
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3797,11 +3533,11 @@
       <c r="T16" t="n">
         <v>0.0</v>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0.0</v>
@@ -3824,11 +3560,11 @@
       <c r="AC16" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.0</v>
+      <c r="AD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0.0</v>
@@ -3839,11 +3575,11 @@
       <c r="AH16" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0.0</v>
+      <c r="AI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0.0</v>
@@ -3866,11 +3602,11 @@
       <c r="AQ16" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0.0</v>
+      <c r="AR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
         <v>0.0</v>
@@ -3881,11 +3617,11 @@
       <c r="AV16" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0.0</v>
+      <c r="AW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX16" t="b">
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
         <v>0.0</v>
@@ -3896,11 +3632,11 @@
       <c r="BA16" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0.0</v>
+      <c r="BB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" t="b">
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>0.0</v>
@@ -3923,11 +3659,11 @@
       <c r="BJ16" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0.0</v>
+      <c r="BK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL16" t="b">
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
         <v>0.0</v>
@@ -3938,8 +3674,8 @@
       <c r="BO16" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP16" t="b">
-        <v>0</v>
+      <c r="BP16" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ16" t="n">
         <v>0.0</v>
@@ -3960,27 +3696,24 @@
         <v>0.0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>114</v>
+      <c r="A17" t="n">
+        <v>12425.0</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3988,23 +3721,23 @@
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.0</v>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -4027,11 +3760,11 @@
       <c r="T17" t="n">
         <v>0.0</v>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
@@ -4054,11 +3787,11 @@
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.0</v>
+      <c r="AD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0.0</v>
@@ -4069,11 +3802,11 @@
       <c r="AH17" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.0</v>
+      <c r="AI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0.0</v>
@@ -4096,11 +3829,11 @@
       <c r="AQ17" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0.0</v>
+      <c r="AR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" t="b">
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
         <v>0.0</v>
@@ -4111,11 +3844,11 @@
       <c r="AV17" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0.0</v>
+      <c r="AW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" t="b">
+        <v>0</v>
       </c>
       <c r="AY17" t="n">
         <v>0.0</v>
@@ -4126,11 +3859,11 @@
       <c r="BA17" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0.0</v>
+      <c r="BB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC17" t="b">
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
         <v>0.0</v>
@@ -4153,11 +3886,11 @@
       <c r="BJ17" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0.0</v>
+      <c r="BK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL17" t="b">
+        <v>0</v>
       </c>
       <c r="BM17" t="n">
         <v>0.0</v>
@@ -4168,8 +3901,8 @@
       <c r="BO17" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP17" t="b">
-        <v>0</v>
+      <c r="BP17" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ17" t="n">
         <v>0.0</v>
@@ -4190,27 +3923,24 @@
         <v>0.0</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>117</v>
+      <c r="A18" t="n">
+        <v>12049.0</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4218,23 +3948,23 @@
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.0</v>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -4257,11 +3987,11 @@
       <c r="T18" t="n">
         <v>0.0</v>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.0</v>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0.0</v>
@@ -4284,11 +4014,11 @@
       <c r="AC18" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.0</v>
+      <c r="AD18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0.0</v>
@@ -4299,11 +4029,11 @@
       <c r="AH18" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0.0</v>
+      <c r="AI18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0.0</v>
@@ -4326,11 +4056,11 @@
       <c r="AQ18" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0.0</v>
+      <c r="AR18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
         <v>0.0</v>
@@ -4341,11 +4071,11 @@
       <c r="AV18" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0.0</v>
+      <c r="AW18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX18" t="b">
+        <v>0</v>
       </c>
       <c r="AY18" t="n">
         <v>0.0</v>
@@ -4356,11 +4086,11 @@
       <c r="BA18" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0.0</v>
+      <c r="BB18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC18" t="b">
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -4383,11 +4113,11 @@
       <c r="BJ18" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0.0</v>
+      <c r="BK18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL18" t="b">
+        <v>0</v>
       </c>
       <c r="BM18" t="n">
         <v>0.0</v>
@@ -4398,8 +4128,8 @@
       <c r="BO18" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP18" t="b">
-        <v>0</v>
+      <c r="BP18" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ18" t="n">
         <v>0.0</v>
@@ -4420,27 +4150,24 @@
         <v>0.0</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX18" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>120</v>
+      <c r="A19" t="n">
+        <v>12052.0</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4448,23 +4175,23 @@
       <c r="G19" t="n">
         <v>0.0</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0</v>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -4487,11 +4214,11 @@
       <c r="T19" t="n">
         <v>0.0</v>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0.0</v>
@@ -4514,11 +4241,11 @@
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.0</v>
+      <c r="AD19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0.0</v>
@@ -4529,11 +4256,11 @@
       <c r="AH19" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.0</v>
+      <c r="AI19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0.0</v>
@@ -4556,11 +4283,11 @@
       <c r="AQ19" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0.0</v>
+      <c r="AR19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS19" t="b">
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
         <v>0.0</v>
@@ -4571,11 +4298,11 @@
       <c r="AV19" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0.0</v>
+      <c r="AW19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX19" t="b">
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
         <v>0.0</v>
@@ -4586,11 +4313,11 @@
       <c r="BA19" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0.0</v>
+      <c r="BB19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC19" t="b">
+        <v>0</v>
       </c>
       <c r="BD19" t="n">
         <v>0.0</v>
@@ -4613,11 +4340,11 @@
       <c r="BJ19" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0.0</v>
+      <c r="BK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL19" t="b">
+        <v>0</v>
       </c>
       <c r="BM19" t="n">
         <v>0.0</v>
@@ -4628,8 +4355,8 @@
       <c r="BO19" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP19" t="b">
-        <v>0</v>
+      <c r="BP19" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ19" t="n">
         <v>0.0</v>
@@ -4650,27 +4377,24 @@
         <v>0.0</v>
       </c>
       <c r="BW19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>123</v>
+      <c r="A20" t="n">
+        <v>12053.0</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4678,23 +4402,23 @@
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0</v>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -4717,11 +4441,11 @@
       <c r="T20" t="n">
         <v>0.0</v>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0.0</v>
@@ -4744,11 +4468,11 @@
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.0</v>
+      <c r="AD20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0.0</v>
@@ -4759,11 +4483,11 @@
       <c r="AH20" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.0</v>
+      <c r="AI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
         <v>0.0</v>
@@ -4786,11 +4510,11 @@
       <c r="AQ20" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0.0</v>
+      <c r="AR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" t="b">
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
         <v>0.0</v>
@@ -4801,11 +4525,11 @@
       <c r="AV20" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0.0</v>
+      <c r="AW20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX20" t="b">
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
         <v>0.0</v>
@@ -4816,11 +4540,11 @@
       <c r="BA20" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.0</v>
+      <c r="BB20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC20" t="b">
+        <v>0</v>
       </c>
       <c r="BD20" t="n">
         <v>0.0</v>
@@ -4843,11 +4567,11 @@
       <c r="BJ20" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0.0</v>
+      <c r="BK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL20" t="b">
+        <v>0</v>
       </c>
       <c r="BM20" t="n">
         <v>0.0</v>
@@ -4858,8 +4582,8 @@
       <c r="BO20" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP20" t="b">
-        <v>0</v>
+      <c r="BP20" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ20" t="n">
         <v>0.0</v>
@@ -4880,27 +4604,24 @@
         <v>0.0</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>126</v>
+      <c r="A21" t="n">
+        <v>22054.0</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4908,23 +4629,23 @@
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0</v>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -4947,11 +4668,11 @@
       <c r="T21" t="n">
         <v>0.0</v>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.0</v>
+      <c r="U21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0.0</v>
@@ -4974,11 +4695,11 @@
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.0</v>
+      <c r="AD21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
         <v>0.0</v>
@@ -4989,11 +4710,11 @@
       <c r="AH21" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.0</v>
+      <c r="AI21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0.0</v>
@@ -5016,11 +4737,11 @@
       <c r="AQ21" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0.0</v>
+      <c r="AR21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS21" t="b">
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0.0</v>
@@ -5031,11 +4752,11 @@
       <c r="AV21" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0.0</v>
+      <c r="AW21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX21" t="b">
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
         <v>0.0</v>
@@ -5046,11 +4767,11 @@
       <c r="BA21" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.0</v>
+      <c r="BB21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC21" t="b">
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
         <v>0.0</v>
@@ -5073,11 +4794,11 @@
       <c r="BJ21" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0.0</v>
+      <c r="BK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL21" t="b">
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
         <v>0.0</v>
@@ -5088,8 +4809,8 @@
       <c r="BO21" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP21" t="b">
-        <v>0</v>
+      <c r="BP21" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ21" t="n">
         <v>0.0</v>
@@ -5110,27 +4831,24 @@
         <v>0.0</v>
       </c>
       <c r="BW21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>129</v>
+      <c r="A22" t="n">
+        <v>22055.0</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5138,23 +4856,23 @@
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.0</v>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -5177,11 +4895,11 @@
       <c r="T22" t="n">
         <v>0.0</v>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0.0</v>
@@ -5204,11 +4922,11 @@
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.0</v>
+      <c r="AD22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0.0</v>
@@ -5219,11 +4937,11 @@
       <c r="AH22" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.0</v>
+      <c r="AI22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
         <v>0.0</v>
@@ -5246,11 +4964,11 @@
       <c r="AQ22" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0.0</v>
+      <c r="AR22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS22" t="b">
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
         <v>0.0</v>
@@ -5261,11 +4979,11 @@
       <c r="AV22" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0.0</v>
+      <c r="AW22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX22" t="b">
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
         <v>0.0</v>
@@ -5276,11 +4994,11 @@
       <c r="BA22" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.0</v>
+      <c r="BB22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC22" t="b">
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
         <v>0.0</v>
@@ -5303,11 +5021,11 @@
       <c r="BJ22" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0.0</v>
+      <c r="BK22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL22" t="b">
+        <v>0</v>
       </c>
       <c r="BM22" t="n">
         <v>0.0</v>
@@ -5318,8 +5036,8 @@
       <c r="BO22" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP22" t="b">
-        <v>0</v>
+      <c r="BP22" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ22" t="n">
         <v>0.0</v>
@@ -5340,27 +5058,24 @@
         <v>0.0</v>
       </c>
       <c r="BW22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX22" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>132</v>
+      <c r="A23" t="n">
+        <v>12077.0</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -5368,23 +5083,23 @@
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.0</v>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -5407,11 +5122,11 @@
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.0</v>
+      <c r="U23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0.0</v>
@@ -5434,11 +5149,11 @@
       <c r="AC23" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.0</v>
+      <c r="AD23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0.0</v>
@@ -5449,11 +5164,11 @@
       <c r="AH23" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.0</v>
+      <c r="AI23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
         <v>0.0</v>
@@ -5476,11 +5191,11 @@
       <c r="AQ23" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0.0</v>
+      <c r="AR23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS23" t="b">
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
         <v>0.0</v>
@@ -5491,11 +5206,11 @@
       <c r="AV23" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0.0</v>
+      <c r="AW23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX23" t="b">
+        <v>0</v>
       </c>
       <c r="AY23" t="n">
         <v>0.0</v>
@@ -5506,11 +5221,11 @@
       <c r="BA23" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0.0</v>
+      <c r="BB23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC23" t="b">
+        <v>0</v>
       </c>
       <c r="BD23" t="n">
         <v>0.0</v>
@@ -5533,11 +5248,11 @@
       <c r="BJ23" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0.0</v>
+      <c r="BK23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL23" t="b">
+        <v>0</v>
       </c>
       <c r="BM23" t="n">
         <v>0.0</v>
@@ -5548,8 +5263,8 @@
       <c r="BO23" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP23" t="b">
-        <v>0</v>
+      <c r="BP23" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ23" t="n">
         <v>0.0</v>
@@ -5570,51 +5285,48 @@
         <v>0.0</v>
       </c>
       <c r="BW23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX23" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>135</v>
+      <c r="A24" t="n">
+        <v>12083.0</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.0</v>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -5637,11 +5349,11 @@
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0.0</v>
@@ -5664,11 +5376,11 @@
       <c r="AC24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.0</v>
+      <c r="AD24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0.0</v>
@@ -5679,11 +5391,11 @@
       <c r="AH24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.0</v>
+      <c r="AI24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
         <v>0.0</v>
@@ -5706,11 +5418,11 @@
       <c r="AQ24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0.0</v>
+      <c r="AR24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS24" t="b">
+        <v>0</v>
       </c>
       <c r="AT24" t="n">
         <v>0.0</v>
@@ -5721,11 +5433,11 @@
       <c r="AV24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0.0</v>
+      <c r="AW24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX24" t="b">
+        <v>0</v>
       </c>
       <c r="AY24" t="n">
         <v>0.0</v>
@@ -5736,11 +5448,11 @@
       <c r="BA24" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0.0</v>
+      <c r="BB24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC24" t="b">
+        <v>0</v>
       </c>
       <c r="BD24" t="n">
         <v>0.0</v>
@@ -5763,11 +5475,11 @@
       <c r="BJ24" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0.0</v>
+      <c r="BK24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL24" t="b">
+        <v>0</v>
       </c>
       <c r="BM24" t="n">
         <v>0.0</v>
@@ -5778,8 +5490,8 @@
       <c r="BO24" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP24" t="b">
-        <v>0</v>
+      <c r="BP24" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ24" t="n">
         <v>0.0</v>
@@ -5797,30 +5509,27 @@
         <v>0.0</v>
       </c>
       <c r="BV24" t="n">
-        <v>0.0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="BW24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX24" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="A25" t="n">
+        <v>12084.0</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5828,23 +5537,23 @@
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.0</v>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -5867,11 +5576,11 @@
       <c r="T25" t="n">
         <v>0.0</v>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0.0</v>
@@ -5894,11 +5603,11 @@
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.0</v>
+      <c r="AD25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
@@ -5909,11 +5618,11 @@
       <c r="AH25" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.0</v>
+      <c r="AI25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0.0</v>
@@ -5936,11 +5645,11 @@
       <c r="AQ25" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0.0</v>
+      <c r="AR25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS25" t="b">
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
         <v>0.0</v>
@@ -5951,11 +5660,11 @@
       <c r="AV25" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0.0</v>
+      <c r="AW25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX25" t="b">
+        <v>0</v>
       </c>
       <c r="AY25" t="n">
         <v>0.0</v>
@@ -5966,11 +5675,11 @@
       <c r="BA25" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.0</v>
+      <c r="BB25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC25" t="b">
+        <v>0</v>
       </c>
       <c r="BD25" t="n">
         <v>0.0</v>
@@ -5993,11 +5702,11 @@
       <c r="BJ25" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0.0</v>
+      <c r="BK25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL25" t="b">
+        <v>0</v>
       </c>
       <c r="BM25" t="n">
         <v>0.0</v>
@@ -6008,8 +5717,8 @@
       <c r="BO25" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP25" t="b">
-        <v>0</v>
+      <c r="BP25" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ25" t="n">
         <v>0.0</v>
@@ -6030,27 +5739,24 @@
         <v>0.0</v>
       </c>
       <c r="BW25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>141</v>
+      <c r="A26" t="n">
+        <v>12085.0</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6058,23 +5764,23 @@
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0</v>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -6097,11 +5803,11 @@
       <c r="T26" t="n">
         <v>0.0</v>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0.0</v>
@@ -6124,11 +5830,11 @@
       <c r="AC26" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.0</v>
+      <c r="AD26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
@@ -6139,11 +5845,11 @@
       <c r="AH26" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0.0</v>
+      <c r="AI26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
         <v>0.0</v>
@@ -6166,11 +5872,11 @@
       <c r="AQ26" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0.0</v>
+      <c r="AR26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS26" t="b">
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
         <v>0.0</v>
@@ -6181,11 +5887,11 @@
       <c r="AV26" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0.0</v>
+      <c r="AW26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX26" t="b">
+        <v>0</v>
       </c>
       <c r="AY26" t="n">
         <v>0.0</v>
@@ -6196,11 +5902,11 @@
       <c r="BA26" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>0.0</v>
+      <c r="BB26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC26" t="b">
+        <v>0</v>
       </c>
       <c r="BD26" t="n">
         <v>0.0</v>
@@ -6223,11 +5929,11 @@
       <c r="BJ26" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0.0</v>
+      <c r="BK26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL26" t="b">
+        <v>0</v>
       </c>
       <c r="BM26" t="n">
         <v>0.0</v>
@@ -6238,8 +5944,8 @@
       <c r="BO26" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP26" t="b">
-        <v>0</v>
+      <c r="BP26" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ26" t="n">
         <v>0.0</v>
@@ -6260,27 +5966,24 @@
         <v>0.0</v>
       </c>
       <c r="BW26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>144</v>
+      <c r="A27" t="n">
+        <v>12106.0</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6288,23 +5991,23 @@
       <c r="G27" t="n">
         <v>0.0</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.0</v>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -6327,11 +6030,11 @@
       <c r="T27" t="n">
         <v>0.0</v>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
+      <c r="U27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0.0</v>
@@ -6354,11 +6057,11 @@
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.0</v>
+      <c r="AD27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
@@ -6369,11 +6072,11 @@
       <c r="AH27" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.0</v>
+      <c r="AI27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
         <v>0.0</v>
@@ -6396,11 +6099,11 @@
       <c r="AQ27" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0.0</v>
+      <c r="AR27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS27" t="b">
+        <v>0</v>
       </c>
       <c r="AT27" t="n">
         <v>0.0</v>
@@ -6411,11 +6114,11 @@
       <c r="AV27" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0.0</v>
+      <c r="AW27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX27" t="b">
+        <v>0</v>
       </c>
       <c r="AY27" t="n">
         <v>0.0</v>
@@ -6426,11 +6129,11 @@
       <c r="BA27" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0.0</v>
+      <c r="BB27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC27" t="b">
+        <v>0</v>
       </c>
       <c r="BD27" t="n">
         <v>0.0</v>
@@ -6453,11 +6156,11 @@
       <c r="BJ27" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>0.0</v>
+      <c r="BK27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL27" t="b">
+        <v>0</v>
       </c>
       <c r="BM27" t="n">
         <v>0.0</v>
@@ -6468,8 +6171,8 @@
       <c r="BO27" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP27" t="b">
-        <v>0</v>
+      <c r="BP27" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ27" t="n">
         <v>0.0</v>
@@ -6490,27 +6193,24 @@
         <v>0.0</v>
       </c>
       <c r="BW27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX27" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>147</v>
+      <c r="A28" t="n">
+        <v>22184.0</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6518,23 +6218,23 @@
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.0</v>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -6557,11 +6257,11 @@
       <c r="T28" t="n">
         <v>0.0</v>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.0</v>
+      <c r="U28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0.0</v>
@@ -6584,11 +6284,11 @@
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.0</v>
+      <c r="AD28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
@@ -6599,11 +6299,11 @@
       <c r="AH28" t="n">
         <v>0.0</v>
       </c>
-      <c r="AI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0.0</v>
+      <c r="AI28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
         <v>0.0</v>
@@ -6626,11 +6326,11 @@
       <c r="AQ28" t="n">
         <v>0.0</v>
       </c>
-      <c r="AR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0.0</v>
+      <c r="AR28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS28" t="b">
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
         <v>0.0</v>
@@ -6641,11 +6341,11 @@
       <c r="AV28" t="n">
         <v>0.0</v>
       </c>
-      <c r="AW28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0.0</v>
+      <c r="AW28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX28" t="b">
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
         <v>0.0</v>
@@ -6656,11 +6356,11 @@
       <c r="BA28" t="n">
         <v>0.0</v>
       </c>
-      <c r="BB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>0.0</v>
+      <c r="BB28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC28" t="b">
+        <v>0</v>
       </c>
       <c r="BD28" t="n">
         <v>0.0</v>
@@ -6683,11 +6383,11 @@
       <c r="BJ28" t="n">
         <v>0.0</v>
       </c>
-      <c r="BK28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>0.0</v>
+      <c r="BK28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL28" t="b">
+        <v>0</v>
       </c>
       <c r="BM28" t="n">
         <v>0.0</v>
@@ -6698,8 +6398,8 @@
       <c r="BO28" t="n">
         <v>0.0</v>
       </c>
-      <c r="BP28" t="b">
-        <v>0</v>
+      <c r="BP28" t="n">
+        <v>0.0</v>
       </c>
       <c r="BQ28" t="n">
         <v>0.0</v>
@@ -6720,9 +6420,6 @@
         <v>0.0</v>
       </c>
       <c r="BW28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BX28" t="n">
         <v>0.0</v>
       </c>
     </row>
